--- a/程序用_正式版_基础版/ManualAbility.xlsx
+++ b/程序用_正式版_基础版/ManualAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DA2C93-00F4-4C31-9BC0-01786D8F807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5A9D1-54EB-4BAE-8890-E51B44B2F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="960" windowWidth="36180" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="0" windowWidth="25425" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManualAbility" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -338,55 +338,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>A13</t>
   </si>
   <si>
     <t>A14</t>
   </si>
   <si>
-    <t>A15</t>
-  </si>
-  <si>
     <t>A16</t>
   </si>
   <si>
@@ -394,30 +357,6 @@
   </si>
   <si>
     <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
   </si>
   <si>
     <t>TableName: "ManualAbility" Package: "neogame"</t>
@@ -428,22 +367,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
-    <t>A31</t>
-  </si>
-  <si>
     <t>E10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -958,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -987,14 +915,14 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>ROW(A5)-4</f>
+        <f t="shared" ref="A5:A12" si="0">ROW(A5)-4</f>
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1002,14 +930,14 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A36" si="0">ROW(A6)-4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1024,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1039,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1054,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1069,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1084,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1096,372 +1024,12 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36">
         <v>0</v>
       </c>
     </row>
@@ -1483,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_基础版/ManualAbility.xlsx
+++ b/程序用_正式版_基础版/ManualAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5A9D1-54EB-4BAE-8890-E51B44B2F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4EF484-821D-41E1-BEA0-0E335855B428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="0" windowWidth="25425" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="390" windowWidth="35235" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManualAbility" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -373,13 +373,59 @@
   <si>
     <t>A32</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,8 +522,24 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +552,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,13 +587,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,9 +630,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - 着色 4" xfId="2" builtinId="43"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -915,10 +1017,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A12" si="0">ROW(A5)-4</f>
+        <f t="shared" ref="A5:A27" si="0">ROW(A5)-4</f>
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -933,7 +1035,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -948,7 +1050,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -963,7 +1065,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -978,7 +1080,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -993,7 +1095,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -1008,7 +1110,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
@@ -1023,13 +1125,238 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
